--- a/evaluation/results/hybrid/pca/one_svm/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8772241992882562</v>
+        <v>0.5427046263345195</v>
       </c>
       <c r="C2">
-        <v>0.04444444444444445</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="D2">
-        <v>0.07142857142857142</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.0547945205479452</v>
+        <v>0.1628664495114006</v>
       </c>
       <c r="F2">
-        <v>0.06369426751592357</v>
+        <v>0.319693094629156</v>
       </c>
       <c r="G2">
-        <v>0.0697986577181208</v>
+        <v>0.6639427987742594</v>
       </c>
       <c r="H2">
-        <v>0.4954521134296415</v>
+        <v>0.690342429106474</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="K2">
-        <v>491</v>
+        <v>280</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9497098646034816</v>
+        <v>0.9893992932862191</v>
       </c>
       <c r="C2">
-        <v>0.9194756554307116</v>
+        <v>0.5243445692883895</v>
       </c>
       <c r="D2">
-        <v>0.934348239771646</v>
+        <v>0.6854345165238678</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.04444444444444445</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.0547945205479452</v>
+        <v>0.1628664495114006</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8772241992882562</v>
+        <v>0.5427046263345195</v>
       </c>
       <c r="C4">
-        <v>0.8772241992882562</v>
+        <v>0.5427046263345195</v>
       </c>
       <c r="D4">
-        <v>0.8772241992882562</v>
+        <v>0.5427046263345195</v>
       </c>
       <c r="E4">
-        <v>0.8772241992882562</v>
+        <v>0.5427046263345195</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.497077154523963</v>
+        <v>0.5395025140266221</v>
       </c>
       <c r="C5">
-        <v>0.4954521134296415</v>
+        <v>0.7086008560727661</v>
       </c>
       <c r="D5">
-        <v>0.4945713801597956</v>
+        <v>0.4241504830176342</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9046076728517859</v>
+        <v>0.9445697209756542</v>
       </c>
       <c r="C6">
-        <v>0.8772241992882562</v>
+        <v>0.5427046263345195</v>
       </c>
       <c r="D6">
-        <v>0.8905270580309634</v>
+        <v>0.6593990968150616</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>491</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
